--- a/wwwroot/files/my_excel1.xlsx
+++ b/wwwroot/files/my_excel1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Desktop\Conduent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E237345-C0FC-443B-B164-27199BD5F5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E0DC98-7B97-4117-9322-51050E253ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
